--- a/roadmap + timetable.xlsx
+++ b/roadmap + timetable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiele\Documents\School\Jaar 5 UvA 2019-20\Scriptie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiele\Documents\School\Jaar 5 UvA 2019-20\Scriptie\Thesis\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
   <si>
     <t>Things to do</t>
   </si>
@@ -313,13 +313,34 @@
     <t>time table, github</t>
   </si>
   <si>
-    <t>Progress</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
     <t>Input physical values for the clump mass, position, velocity without any radiation. Make a animation of clumps merging on realistic timescales and lengthscales. Don't add a radiation source yet.</t>
+  </si>
+  <si>
+    <t>make 3D animation at a bad day</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>add drag of clump moving through stationary background gas</t>
+  </si>
+  <si>
+    <t>add color gradient in 3D plot</t>
+  </si>
+  <si>
+    <t>Progress legenda</t>
+  </si>
+  <si>
+    <t>not done</t>
+  </si>
+  <si>
+    <t>off day / weekend</t>
+  </si>
+  <si>
+    <t>paper / presentation</t>
   </si>
 </sst>
 </file>
@@ -436,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -474,6 +495,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -483,7 +609,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -518,6 +644,58 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Controlecel" xfId="5" builtinId="23"/>
@@ -806,7 +984,7 @@
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -854,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
@@ -1079,462 +1257,485 @@
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="21">
+        <v>43963</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="8">
-        <v>43963</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="8">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="16">
         <v>43964</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="8">
+      <c r="F17" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="14">
         <v>43965</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="8">
+      <c r="F18" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="14">
         <v>43966</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="8">
+      <c r="F19" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="16">
         <v>43967</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="8">
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="22">
         <v>43968</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="8">
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="12">
         <v>43969</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="8">
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="14">
         <v>43970</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="8">
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="14">
         <v>43971</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="8">
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="16">
         <v>43972</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="8">
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="16">
         <v>43973</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="8">
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="17">
         <v>43974</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="8">
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="19">
         <v>43975</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="8">
+    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="23">
         <v>43976</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="8">
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="17">
         <v>43977</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="8">
+    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="17">
         <v>43978</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="8">
+    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="17">
         <v>43979</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="8">
+      <c r="D33" s="17">
         <v>43980</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="8">
+      <c r="D34" s="17">
         <v>43981</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="8">
+    <row r="35" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="19">
         <v>43982</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="8">
+      <c r="D36" s="23">
         <v>43983</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="8">
+      <c r="D37" s="17">
         <v>43984</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="8">
+      <c r="D38" s="17">
         <v>43985</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="8">
+      <c r="D39" s="17">
         <v>43986</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="8">
+      <c r="D40" s="17">
         <v>43987</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="8">
+      <c r="D41" s="17">
         <v>43988</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="8">
+    <row r="42" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="19">
         <v>43989</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="8">
+      <c r="D43" s="23">
         <v>43990</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="8">
+      <c r="D44" s="17">
         <v>43991</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="8">
+      <c r="D45" s="17">
         <v>43992</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="8">
+      <c r="D46" s="17">
         <v>43993</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="8">
+      <c r="D47" s="17">
         <v>43994</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="8">
+      <c r="D48" s="17">
         <v>43995</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="49" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="8">
+      <c r="D49" s="19">
         <v>43996</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="8">
+    <row r="50" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="23">
         <v>43997</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="8">
+      <c r="D51" s="17">
         <v>43998</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="52" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="8">
+      <c r="D52" s="17">
         <v>43999</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="53" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="8">
+      <c r="D53" s="17">
         <v>44000</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="8">
+      <c r="D54" s="17">
         <v>44001</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="8">
+      <c r="D55" s="17">
         <v>44002</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="8">
+      <c r="D56" s="19">
         <v>44003</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="8">
+    <row r="57" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="23">
         <v>44004</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="8">
+      <c r="D58" s="17">
         <v>44005</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="8">
+      <c r="D59" s="17">
         <v>44006</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="8">
+      <c r="D60" s="17">
         <v>44007</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="8">
+      <c r="D61" s="17">
         <v>44008</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="8">
+      <c r="D62" s="17">
         <v>44009</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="8">
+      <c r="D63" s="19">
         <v>44010</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="8">
+    <row r="64" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="23">
         <v>44011</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="8">
+      <c r="D65" s="17">
         <v>44012</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="8">
+      <c r="D66" s="17">
         <v>44013</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="8">
+      <c r="D67" s="17">
         <v>44014</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="8">
+      <c r="D68" s="17">
         <v>44015</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="8">
+      <c r="D69" s="17">
         <v>44016</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="8">
+      <c r="D70" s="19">
         <v>44017</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="8">
         <v>44018</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="24" t="s">
         <v>54</v>
       </c>
     </row>

--- a/roadmap + timetable.xlsx
+++ b/roadmap + timetable.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>Things to do</t>
   </si>
@@ -101,9 +102,6 @@
     <t>As the background gas gets blown away, more radiation will reach the clumps and thus clump evaporation will occur at a higher level. Does the lifespan of clumps depend on the amound of back ground gas that is in between the clump and the radiation source?</t>
   </si>
   <si>
-    <t>Calculate how many photons reach the radius of each clump.  Assume for now that each clump sees direct stellar light, no shadows of other clumps.</t>
-  </si>
-  <si>
     <t>The are no shadows casted by clump onto other clumps behind them. Each clump will get the amount of radiation only dependert on the background gas density and the distance between the clump and the radiation source</t>
   </si>
   <si>
@@ -146,9 +144,6 @@
   </si>
   <si>
     <t>Total time:</t>
-  </si>
-  <si>
-    <t>Run the radiation Weltgeist code at the same time as my N_body code. Plot the radius of the nebula/radiation bubble over the N_body code. Plot the new lifespan of clumps when the background gas in going away.</t>
   </si>
   <si>
     <t>Stellar winds reaching the clumps has no effect on the lifespan of the clumps. Only clump evaporation has a effect on the lifespan of the clumps.</t>
@@ -230,22 +225,10 @@
     <t>task 4</t>
   </si>
   <si>
-    <t>task 5</t>
-  </si>
-  <si>
-    <t>task 6 &amp; 7</t>
-  </si>
-  <si>
     <t>task 8</t>
   </si>
   <si>
     <t xml:space="preserve">task 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">task 10 </t>
-  </si>
-  <si>
-    <t>task 11</t>
   </si>
   <si>
     <t>spare time</t>
@@ -341,6 +324,40 @@
   </si>
   <si>
     <t>paper / presentation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculate how many photons reach the radius of each clump.  Assume for now that each clump sees direct stellar light, no shadows of other clumps. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ITS IN SAMS CODE: RADIATION.PY recombination of amount of hydrogen ions the recombine. How many photon you need to keep the ions ionized)</t>
+    </r>
+  </si>
+  <si>
+    <t>task 7</t>
+  </si>
+  <si>
+    <t>powerlaw distribution implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the radiation Weltgeist code at the same time as my N_body code. Plot the radius of the nebula/radiation bubble over the N_body code. </t>
+  </si>
+  <si>
+    <t>The central star is kept fixed in the middle of the cloud and plot.</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>CM is always in origin. It's kept fixed just as the star</t>
   </si>
 </sst>
 </file>
@@ -457,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -600,6 +617,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -609,7 +639,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -644,9 +674,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -695,7 +722,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Controlecel" xfId="5" builtinId="23"/>
@@ -983,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1033,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1024,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1032,19 +1065,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1055,13 +1088,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1088,50 +1121,72 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1139,45 +1194,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,16 +1217,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -1205,13 +1237,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
@@ -1220,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,30 +1260,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,484 +1291,485 @@
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="21">
+        <v>76</v>
+      </c>
+      <c r="D16" s="20">
         <v>43963</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>79</v>
+      <c r="E16" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="16">
+        <v>78</v>
+      </c>
+      <c r="D17" s="15">
         <v>43964</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>55</v>
+      <c r="E17" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="13">
+        <v>43965</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="13">
+        <v>43966</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="15">
+        <v>43967</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="21">
+        <v>43968</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="28">
+        <v>43969</v>
+      </c>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="13">
+        <v>43970</v>
+      </c>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="13">
+        <v>43971</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15">
+        <v>43972</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="15">
+        <v>43973</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="13">
+        <v>43974</v>
+      </c>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="21">
+        <v>43975</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="15">
+        <v>43976</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="15">
+        <v>43977</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="15">
+        <v>43978</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="15">
+        <v>43979</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="15">
+        <v>43980</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="13">
+        <v>43981</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="21">
+        <v>43982</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36"/>
+      <c r="D36" s="28">
+        <v>43983</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="14">
-        <v>43965</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="14">
-        <v>43966</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="29" t="s">
+    </row>
+    <row r="37" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="15">
+        <v>43984</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="13">
+        <v>43985</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="15">
+        <v>43986</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="16">
+        <v>43987</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="16">
+        <v>43988</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="18">
+        <v>43989</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="22">
+        <v>43990</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="16">
-        <v>43967</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="22">
-        <v>43968</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="12">
-        <v>43969</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="14">
-        <v>43970</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="14">
-        <v>43971</v>
-      </c>
-      <c r="E24" s="26" t="s">
+    <row r="44" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="16">
+        <v>43991</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="16">
-        <v>43972</v>
-      </c>
-      <c r="E25" s="26" t="s">
+    <row r="45" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="16">
+        <v>43992</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="16">
-        <v>43973</v>
-      </c>
-      <c r="E26" s="26" t="s">
+    <row r="46" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="16">
+        <v>43993</v>
+      </c>
+      <c r="E46" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="17">
-        <v>43974</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="19">
-        <v>43975</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="23">
-        <v>43976</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="17">
-        <v>43977</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="17">
-        <v>43978</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="17">
-        <v>43979</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="17">
-        <v>43980</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="17">
-        <v>43981</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="19">
-        <v>43982</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="23">
-        <v>43983</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="17">
-        <v>43984</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="17">
-        <v>43985</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="17">
-        <v>43986</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="17">
-        <v>43987</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="17">
-        <v>43988</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="19">
-        <v>43989</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="23">
-        <v>43990</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="17">
-        <v>43991</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="17">
-        <v>43992</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="17">
-        <v>43993</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="17">
+    <row r="47" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="16">
         <v>43994</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="17">
+      <c r="E47" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="16">
         <v>43995</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>53</v>
+      <c r="E48" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>43996</v>
       </c>
-      <c r="E49" s="20" t="s">
-        <v>53</v>
+      <c r="E49" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <v>43997</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>54</v>
+      <c r="E50" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="17">
+      <c r="D51" s="16">
         <v>43998</v>
       </c>
-      <c r="E51" s="28" t="s">
-        <v>54</v>
+      <c r="E51" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="17">
+      <c r="D52" s="16">
         <v>43999</v>
       </c>
-      <c r="E52" s="28" t="s">
-        <v>54</v>
+      <c r="E52" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="17">
+      <c r="D53" s="16">
         <v>44000</v>
       </c>
-      <c r="E53" s="28" t="s">
-        <v>54</v>
+      <c r="E53" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="17">
+      <c r="D54" s="16">
         <v>44001</v>
       </c>
-      <c r="E54" s="28" t="s">
-        <v>54</v>
+      <c r="E54" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="17">
+      <c r="D55" s="16">
         <v>44002</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>53</v>
+      <c r="E55" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>44003</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>53</v>
+      <c r="E56" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="23">
+      <c r="D57" s="22">
         <v>44004</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>54</v>
+      <c r="E57" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>44005</v>
       </c>
-      <c r="E58" s="28" t="s">
-        <v>54</v>
+      <c r="E58" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="17">
+      <c r="D59" s="16">
         <v>44006</v>
       </c>
-      <c r="E59" s="28" t="s">
-        <v>54</v>
+      <c r="E59" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="17">
+      <c r="D60" s="16">
         <v>44007</v>
       </c>
-      <c r="E60" s="28" t="s">
-        <v>54</v>
+      <c r="E60" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <v>44008</v>
       </c>
-      <c r="E61" s="28" t="s">
-        <v>54</v>
+      <c r="E61" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>44009</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>53</v>
+      <c r="E62" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="19">
+      <c r="D63" s="18">
         <v>44010</v>
       </c>
-      <c r="E63" s="20" t="s">
-        <v>53</v>
+      <c r="E63" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="23">
+      <c r="D64" s="22">
         <v>44011</v>
       </c>
-      <c r="E64" s="27" t="s">
-        <v>54</v>
+      <c r="E64" s="26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <v>44012</v>
       </c>
-      <c r="E65" s="28" t="s">
-        <v>52</v>
+      <c r="E65" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <v>44013</v>
       </c>
-      <c r="E66" s="28" t="s">
-        <v>52</v>
+      <c r="E66" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="17">
+      <c r="D67" s="16">
         <v>44014</v>
       </c>
-      <c r="E67" s="28" t="s">
-        <v>52</v>
+      <c r="E67" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="17">
+      <c r="D68" s="16">
         <v>44015</v>
       </c>
-      <c r="E68" s="28" t="s">
-        <v>52</v>
+      <c r="E68" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="17">
+      <c r="D69" s="16">
         <v>44016</v>
       </c>
-      <c r="E69" s="18" t="s">
-        <v>53</v>
+      <c r="E69" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <v>44017</v>
       </c>
-      <c r="E70" s="20" t="s">
-        <v>53</v>
+      <c r="E70" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="8">
         <v>44018</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>54</v>
+      <c r="E71" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1744,7 +1777,7 @@
         <v>44019</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1752,7 +1785,7 @@
         <v>44020</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1760,7 +1793,7 @@
         <v>44021</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/roadmap + timetable.xlsx
+++ b/roadmap + timetable.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>Things to do</t>
   </si>
@@ -359,12 +358,21 @@
   <si>
     <t>CM is always in origin. It's kept fixed just as the star</t>
   </si>
+  <si>
+    <t>Equilibrium temperature of photoionised gas in K default: 8400 K, value used in Geen+ 2015b</t>
+  </si>
+  <si>
+    <t>Clumps have constand radii</t>
+  </si>
+  <si>
+    <t>McKee paper: "The lifetime is given assuming a constant incident ionizing flux and therefore does not take into account the cloud motion away from the ionizing star.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +447,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times-Roman"/>
     </font>
   </fonts>
   <fills count="7">
@@ -639,7 +652,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -729,6 +742,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Controlecel" xfId="5" builtinId="23"/>
@@ -1016,11 +1030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7" style="4" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" style="1" customWidth="1"/>
@@ -1031,7 +1045,7 @@
     <col min="7" max="16384" width="45.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -1060,7 +1074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="60" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1080,7 +1094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1097,7 +1111,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="60" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1120,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="60" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>72</v>
       </c>
@@ -1143,7 +1157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="60" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1166,7 +1180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60" customHeight="1">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -1189,7 +1203,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" customHeight="1">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -1212,7 +1226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60" customHeight="1">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -1232,7 +1246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60" customHeight="1">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -1255,7 +1269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="60" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1278,7 +1292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1286,10 +1300,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
@@ -1300,7 +1314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
@@ -1328,7 +1342,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B18" s="1" t="s">
         <v>79</v>
       </c>
@@ -1342,7 +1356,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D19" s="13">
         <v>43966</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="D20" s="15">
         <v>43967</v>
       </c>
@@ -1360,26 +1374,26 @@
       </c>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D21" s="21">
         <v>43968</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="D22" s="28">
         <v>43969</v>
       </c>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="D23" s="13">
         <v>43970</v>
       </c>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="D24" s="13">
         <v>43971</v>
       </c>
@@ -1387,7 +1401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
@@ -1409,7 +1423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
@@ -1418,13 +1432,19 @@
       </c>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D28" s="21">
         <v>43975</v>
       </c>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D29" s="15">
         <v>43976</v>
       </c>
@@ -1432,7 +1452,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="D30" s="15">
         <v>43977</v>
       </c>
@@ -1440,7 +1460,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D31" s="15">
         <v>43978</v>
       </c>
@@ -1448,7 +1471,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="C32" s="31"/>
       <c r="D32" s="15">
         <v>43979</v>
       </c>
@@ -1456,7 +1480,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="20.100000000000001" customHeight="1">
+      <c r="C33" s="31"/>
       <c r="D33" s="15">
         <v>43980</v>
       </c>
@@ -1464,7 +1489,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="20.100000000000001" customHeight="1">
+      <c r="C34" s="31"/>
       <c r="D34" s="13">
         <v>43981</v>
       </c>
@@ -1472,7 +1498,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C35" s="31"/>
       <c r="D35" s="21">
         <v>43982</v>
       </c>
@@ -1480,83 +1507,81 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="C36"/>
       <c r="D36" s="28">
         <v>43983</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="D37" s="15">
         <v>43984</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="D38" s="13">
         <v>43985</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="D39" s="15">
         <v>43986</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="16">
+      <c r="E39" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="20.100000000000001" customHeight="1">
+      <c r="D40" s="15">
         <v>43987</v>
       </c>
-      <c r="E40" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="16">
+      <c r="E40" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="20.100000000000001" customHeight="1">
+      <c r="D41" s="13">
         <v>43988</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="18">
+    <row r="42" spans="3:6" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="D42" s="21">
         <v>43989</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="22">
+    <row r="43" spans="3:6" ht="20.100000000000001" customHeight="1">
+      <c r="D43" s="20">
         <v>43990</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="D44" s="16">
         <v>43991</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="D45" s="16">
         <v>43992</v>
       </c>
@@ -1564,7 +1589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="D46" s="16">
         <v>43993</v>
       </c>
@@ -1572,7 +1597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="D47" s="16">
         <v>43994</v>
       </c>
@@ -1580,7 +1605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" ht="20.100000000000001" customHeight="1">
       <c r="D48" s="16">
         <v>43995</v>
       </c>
@@ -1588,7 +1613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D49" s="18">
         <v>43996</v>
       </c>
@@ -1596,7 +1621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D50" s="22">
         <v>43997</v>
       </c>
@@ -1604,7 +1629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D51" s="16">
         <v>43998</v>
       </c>
@@ -1612,7 +1637,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D52" s="16">
         <v>43999</v>
       </c>
@@ -1620,7 +1645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D53" s="16">
         <v>44000</v>
       </c>
@@ -1628,7 +1653,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D54" s="16">
         <v>44001</v>
       </c>
@@ -1636,7 +1661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="D55" s="16">
         <v>44002</v>
       </c>
@@ -1644,7 +1669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D56" s="18">
         <v>44003</v>
       </c>
@@ -1652,7 +1677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D57" s="22">
         <v>44004</v>
       </c>
@@ -1660,7 +1685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D58" s="16">
         <v>44005</v>
       </c>
@@ -1668,7 +1693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D59" s="16">
         <v>44006</v>
       </c>
@@ -1676,7 +1701,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D60" s="16">
         <v>44007</v>
       </c>
@@ -1684,7 +1709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D61" s="16">
         <v>44008</v>
       </c>
@@ -1692,7 +1717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="D62" s="16">
         <v>44009</v>
       </c>
@@ -1700,7 +1725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D63" s="18">
         <v>44010</v>
       </c>
@@ -1708,7 +1733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D64" s="22">
         <v>44011</v>
       </c>
@@ -1716,7 +1741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D65" s="16">
         <v>44012</v>
       </c>
@@ -1724,7 +1749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D66" s="16">
         <v>44013</v>
       </c>
@@ -1732,7 +1757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D67" s="16">
         <v>44014</v>
       </c>
@@ -1740,7 +1765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D68" s="16">
         <v>44015</v>
       </c>
@@ -1748,7 +1773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="D69" s="16">
         <v>44016</v>
       </c>
@@ -1756,7 +1781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D70" s="18">
         <v>44017</v>
       </c>
@@ -1764,7 +1789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="D71" s="8">
         <v>44018</v>
       </c>
@@ -1772,7 +1797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D72" s="8">
         <v>44019</v>
       </c>
@@ -1780,7 +1805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="D73" s="8">
         <v>44020</v>
       </c>
@@ -1788,7 +1813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="D74" s="8">
         <v>44021</v>
       </c>
@@ -1796,46 +1821,46 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B80" s="8"/>
     </row>
-    <row r="81" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B81" s="8"/>
     </row>
-    <row r="82" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B82" s="8"/>
     </row>
-    <row r="83" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="8"/>
     </row>
-    <row r="84" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="8"/>
     </row>
-    <row r="86" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B88" s="8"/>
     </row>
   </sheetData>
